--- a/food.xlsx
+++ b/food.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmcc/PycharmProjects/iGet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfredking\PycharmProjects\iGetPY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C55917-B73D-435D-BBD6-F2909CB0460F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="460" windowWidth="25600" windowHeight="13960"/>
+    <workbookView xWindow="2190" yWindow="1710" windowWidth="25830" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>food</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,13 +124,41 @@
   </si>
   <si>
     <t>Pastrami</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1kgs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2lbs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3kgs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4lbs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bacon式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,6 +171,8 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -206,6 +237,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,19 +529,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -517,10 +551,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -528,8 +565,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -539,8 +579,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -551,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -561,8 +604,11 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -572,8 +618,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -583,8 +632,11 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -595,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -606,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -616,28 +668,32 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>